--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf9-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf9-Fgfr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5604413333333333</v>
+        <v>4.520102666666667</v>
       </c>
       <c r="H2">
-        <v>1.681324</v>
+        <v>13.560308</v>
       </c>
       <c r="I2">
-        <v>0.9445773114790939</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="J2">
-        <v>0.9445773114790937</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09434000000000002</v>
+        <v>0.036942</v>
       </c>
       <c r="N2">
-        <v>0.28302</v>
+        <v>0.110826</v>
       </c>
       <c r="O2">
-        <v>0.05191071108246545</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="P2">
-        <v>0.05191071108246544</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="Q2">
-        <v>0.05287203538666668</v>
+        <v>0.166981632712</v>
       </c>
       <c r="R2">
-        <v>0.4758483184800001</v>
+        <v>1.502834694408</v>
       </c>
       <c r="S2">
-        <v>0.04903367991124322</v>
+        <v>0.02083872791335888</v>
       </c>
       <c r="T2">
-        <v>0.0490336799112432</v>
+        <v>0.02083872791335888</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5604413333333333</v>
+        <v>4.520102666666667</v>
       </c>
       <c r="H3">
-        <v>1.681324</v>
+        <v>13.560308</v>
       </c>
       <c r="I3">
-        <v>0.9445773114790939</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="J3">
-        <v>0.9445773114790937</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.829335</v>
       </c>
       <c r="O3">
-        <v>0.5189484550226392</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="P3">
-        <v>0.5189484550226391</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="Q3">
-        <v>0.5285587599488889</v>
+        <v>4.262961559464445</v>
       </c>
       <c r="R3">
-        <v>4.75702883954</v>
+        <v>38.36665403518001</v>
       </c>
       <c r="S3">
-        <v>0.490186936441514</v>
+        <v>0.5320027993498209</v>
       </c>
       <c r="T3">
-        <v>0.4901869364415138</v>
+        <v>0.5320027993498209</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5604413333333333</v>
+        <v>4.520102666666667</v>
       </c>
       <c r="H4">
-        <v>1.681324</v>
+        <v>13.560308</v>
       </c>
       <c r="I4">
-        <v>0.9445773114790939</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="J4">
-        <v>0.9445773114790937</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.339699</v>
       </c>
       <c r="O4">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391025</v>
       </c>
       <c r="P4">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391026</v>
       </c>
       <c r="Q4">
-        <v>0.4370880090528889</v>
+        <v>3.525226563032445</v>
       </c>
       <c r="R4">
-        <v>3.933792081476</v>
+        <v>31.727039067292</v>
       </c>
       <c r="S4">
-        <v>0.4053566951263367</v>
+        <v>0.4399360336036476</v>
       </c>
       <c r="T4">
-        <v>0.4053566951263366</v>
+        <v>0.4399360336036477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.098651</v>
       </c>
       <c r="I5">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="J5">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.09434000000000002</v>
+        <v>0.036942</v>
       </c>
       <c r="N5">
-        <v>0.28302</v>
+        <v>0.110826</v>
       </c>
       <c r="O5">
-        <v>0.05191071108246545</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="P5">
-        <v>0.05191071108246544</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="Q5">
-        <v>0.003102245113333334</v>
+        <v>0.001214788414</v>
       </c>
       <c r="R5">
-        <v>0.02792020602</v>
+        <v>0.010933095726</v>
       </c>
       <c r="S5">
-        <v>0.002877031171222236</v>
+        <v>0.0001516013756752993</v>
       </c>
       <c r="T5">
-        <v>0.002877031171222235</v>
+        <v>0.0001516013756752993</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.098651</v>
       </c>
       <c r="I6">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="J6">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.829335</v>
       </c>
       <c r="O6">
-        <v>0.5189484550226392</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="P6">
-        <v>0.5189484550226391</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="Q6">
         <v>0.03101296967611111</v>
@@ -818,10 +818,10 @@
         <v>0.279116727085</v>
       </c>
       <c r="S6">
-        <v>0.02876151858112523</v>
+        <v>0.003870310922042418</v>
       </c>
       <c r="T6">
-        <v>0.02876151858112522</v>
+        <v>0.003870310922042418</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.098651</v>
       </c>
       <c r="I7">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="J7">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.339699</v>
       </c>
       <c r="O7">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391025</v>
       </c>
       <c r="P7">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391026</v>
       </c>
       <c r="Q7">
         <v>0.02564596067211111</v>
@@ -880,10 +880,10 @@
         <v>0.230813646049</v>
       </c>
       <c r="S7">
-        <v>0.02378413876855873</v>
+        <v>0.003200526835454876</v>
       </c>
       <c r="T7">
-        <v>0.02378413876855873</v>
+        <v>0.003200526835454876</v>
       </c>
     </row>
   </sheetData>
